--- a/doc/网络结构.xlsx
+++ b/doc/网络结构.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1GIT\animal_detect_paddle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1GIT\animal_detect_paddle\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283D25E6-C3D0-4C3C-AADF-10F7468458E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C8034B-E364-4642-806A-2617941635E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6930" yWindow="2565" windowWidth="21600" windowHeight="11205" xr2:uid="{1101EC41-CF4A-49E6-8D6B-BB2C82146601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15600" xr2:uid="{1101EC41-CF4A-49E6-8D6B-BB2C82146601}"/>
   </bookViews>
   <sheets>
     <sheet name="VGG16" sheetId="1" r:id="rId1"/>
@@ -707,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9579BDF-2D7F-494C-9BA5-BEAC19F5503C}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="A1:G36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H23" sqref="H22:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -734,7 +734,7 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
@@ -744,8 +744,15 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -767,8 +774,29 @@
       <c r="G2" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="5">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5">
+        <v>13</v>
+      </c>
+      <c r="L2" s="5">
+        <v>15</v>
+      </c>
+      <c r="M2" s="5">
+        <v>16</v>
+      </c>
+      <c r="N2" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -790,8 +818,29 @@
       <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -813,8 +862,29 @@
       <c r="G4" s="5">
         <v>256</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="5">
+        <v>256</v>
+      </c>
+      <c r="I4" s="5">
+        <v>512</v>
+      </c>
+      <c r="J4" s="5">
+        <v>512</v>
+      </c>
+      <c r="K4" s="5">
+        <v>512</v>
+      </c>
+      <c r="L4" s="5">
+        <v>512</v>
+      </c>
+      <c r="M4" s="5">
+        <v>512</v>
+      </c>
+      <c r="N4" s="5">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -836,8 +906,29 @@
       <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -859,8 +950,29 @@
       <c r="G6" s="5">
         <v>256</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="5">
+        <v>256</v>
+      </c>
+      <c r="I6" s="5">
+        <v>256</v>
+      </c>
+      <c r="J6" s="5">
+        <v>512</v>
+      </c>
+      <c r="K6" s="5">
+        <v>512</v>
+      </c>
+      <c r="L6" s="5">
+        <v>512</v>
+      </c>
+      <c r="M6" s="5">
+        <v>512</v>
+      </c>
+      <c r="N6" s="5">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -882,8 +994,29 @@
       <c r="G7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -905,8 +1038,29 @@
       <c r="G8" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
@@ -928,399 +1082,246 @@
       <c r="G9" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="H9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3">
+        <v>18</v>
+      </c>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4">
+        <v>19</v>
+      </c>
+      <c r="D18" s="4">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4">
+        <v>21</v>
+      </c>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4">
+        <v>25088</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="4">
+        <v>4096</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4096</v>
+      </c>
+      <c r="E21" s="4">
         <v>12</v>
       </c>
-      <c r="D11" s="5">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5">
-        <v>15</v>
-      </c>
-      <c r="F11" s="5">
-        <v>16</v>
-      </c>
-      <c r="G11" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>256</v>
-      </c>
-      <c r="B13" s="5">
-        <v>512</v>
-      </c>
-      <c r="C13" s="5">
-        <v>512</v>
-      </c>
-      <c r="D13" s="5">
-        <v>512</v>
-      </c>
-      <c r="E13" s="5">
-        <v>512</v>
-      </c>
-      <c r="F13" s="5">
-        <v>512</v>
-      </c>
-      <c r="G13" s="5">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>256</v>
-      </c>
-      <c r="B15" s="5">
-        <v>256</v>
-      </c>
-      <c r="C15" s="5">
-        <v>512</v>
-      </c>
-      <c r="D15" s="5">
-        <v>512</v>
-      </c>
-      <c r="E15" s="5">
-        <v>512</v>
-      </c>
-      <c r="F15" s="5">
-        <v>512</v>
-      </c>
-      <c r="G15" s="5">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="3">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3">
-        <v>6</v>
-      </c>
-      <c r="D22" s="3">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3">
-        <v>14</v>
-      </c>
-      <c r="F22" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>19</v>
+      <c r="A22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4096</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4096</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="4">
-        <v>19</v>
-      </c>
-      <c r="D28" s="4">
-        <v>20</v>
-      </c>
-      <c r="E28" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="4">
-        <v>25088</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="4">
-        <v>4096</v>
-      </c>
-      <c r="D31" s="4">
-        <v>4096</v>
-      </c>
-      <c r="E31" s="4">
+      <c r="A25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="4">
-        <v>1</v>
-      </c>
-      <c r="D32" s="4">
-        <v>4096</v>
-      </c>
-      <c r="E32" s="4">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="14"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A11:F11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
